--- a/data/hotels_by_city/Houston/Houston_shard_492.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_492.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d244310-Reviews-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Houston-Hobby-Airport.h11512.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,630 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r567877050-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244310</t>
+  </si>
+  <si>
+    <t>567877050</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Good service from Adam</t>
+  </si>
+  <si>
+    <t>Adam at the front desk was very helpful and made my stay better, offering me an extra hour for a late checkout. Also this hotel offers a good price. It is convenient to Hobby Airport -- about a mile away.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r560335531-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560335531</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE: ENVIRONMENT, PEOPLE, SERVICE AND QUALITY issues</t>
+  </si>
+  <si>
+    <t>After we checked in the front desk person told us that it was not a good area to stay as there was a bar nearby which makes this place all bad. Also the quality and customer services was very poor. Insects and bed bugs according to reviews. Even a tourist guide as per a review confirmed it as a very bad place. But we read it afterwards and then had no option but to stay.All the bad people come to the lobby so not that good for families and for everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Houston - Hobby TX, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>After we checked in the front desk person told us that it was not a good area to stay as there was a bar nearby which makes this place all bad. Also the quality and customer services was very poor. Insects and bed bugs according to reviews. Even a tourist guide as per a review confirmed it as a very bad place. But we read it afterwards and then had no option but to stay.All the bad people come to the lobby so not that good for families and for everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r553796598-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553796598</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Average but ok for a short stay</t>
+  </si>
+  <si>
+    <t>No shuttle available from Hobby airport despite being advertised. Staff advised ‘they had to take it off - get a cab (around $10).Staff weren’t so helpful or friendly at check in. First room had lots of mould in the shower and ants running up the walls. Moved me to another which was better, seemed clean enough but could be great with some TLC and general maintenance. Quite noisy guests at night; long corridor and everyone echoes. Smoke alarm appeared broken / missing.Dennys within walking distance and gas station / liquor store nearby. Was ok for 2 night stay. Uber to downtown cost $17.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r466875959-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466875959</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>We are married men, we dont need Escorts</t>
+  </si>
+  <si>
+    <t>Attended a funeral in Houston and we needed a room for two days. Stayed at Motel 6 Hobby Airport,Never Again!!!!!!. We were approached by Hookers in the main entrance both days.The hallway stunk like a wet dog,and the bedding in the rollaway bed smelled of Urine. The blankets were so coarse they gave me a rash. Men were running and yelling in the hallway on our last night. Many people in the parking lot at night ,much mayhem. Not a safe place for kids, or anyone, I want my money back, management eluding me for two days since I got back home.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r465411893-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465411893</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>No no no</t>
+  </si>
+  <si>
+    <t>Do not stay here.  There are roaches coming out of the holes in the wall. The beds are disgusting and the floors were filthy. My daughter video taped the roaches on the wall to show the manager and the manager didnt seem to care.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston - Hobby TX, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Do not stay here.  There are roaches coming out of the holes in the wall. The beds are disgusting and the floors were filthy. My daughter video taped the roaches on the wall to show the manager and the manager didnt seem to care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r457713684-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457713684</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Outstanding customer service</t>
+  </si>
+  <si>
+    <t>The rooms where decent no pest of any kind overall was a comfortable place to stay nothing fancy but what really won me over was the type of customer service I received Elizabeth made me feel welcomed I have been to a couple hotels and at most the evening/ night crew seem sluggish and give the appearance of not wanting to be there... I can honestly say i will check in here again if I am in need of a room for any future business tripsMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The rooms where decent no pest of any kind overall was a comfortable place to stay nothing fancy but what really won me over was the type of customer service I received Elizabeth made me feel welcomed I have been to a couple hotels and at most the evening/ night crew seem sluggish and give the appearance of not wanting to be there... I can honestly say i will check in here again if I am in need of a room for any future business tripsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r373993316-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373993316</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Basic motel near the airport</t>
+  </si>
+  <si>
+    <t>I was looking for a room to sleep for a few hours before catching the red eye at Hobby Airport. I stayed in April 2016 and I paid $68 for that night. Pros: - Free parking. - The place looked clean. - The room was big but spartan. - 5 mins by taxi to the airport.- It seems we might have got lucky - we weren't bitten by bedbugs! :) Cons: - We had 2 receptionists - one lady who wasn't very friendly and one Indian guy on nightshift who had no clue what he was meant to be doing. - The hotel was supposed to provide free shuttle to the airport but apparently it does not run all night. So the receptionist helped us call for a taxi which arrived 45 mins later and we almost missed our flight. - There is nothing to eat within walking distance of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I was looking for a room to sleep for a few hours before catching the red eye at Hobby Airport. I stayed in April 2016 and I paid $68 for that night. Pros: - Free parking. - The place looked clean. - The room was big but spartan. - 5 mins by taxi to the airport.- It seems we might have got lucky - we weren't bitten by bedbugs! :) Cons: - We had 2 receptionists - one lady who wasn't very friendly and one Indian guy on nightshift who had no clue what he was meant to be doing. - The hotel was supposed to provide free shuttle to the airport but apparently it does not run all night. So the receptionist helped us call for a taxi which arrived 45 mins later and we almost missed our flight. - There is nothing to eat within walking distance of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r353636075-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353636075</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>BEDBUGS-DONT STAY</t>
+  </si>
+  <si>
+    <t>The place was clean inside and out nothing fancy but ok.My daughter and I suffered multiple bedbug bites after our stay.We stayed in two different rooms with the same results.RUN FAR AWAY from this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston - Hobby TX, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>The place was clean inside and out nothing fancy but ok.My daughter and I suffered multiple bedbug bites after our stay.We stayed in two different rooms with the same results.RUN FAR AWAY from this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r348856269-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348856269</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>The hotel is in a decent area, it is well lit and recently updated.  However, you can smell the pesticides used in the halls and still had live bugs crawling over the walls and on me at night. I had tell tell breakfast, lunch dinner bites on me after visiting this hotel in November 2015.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r323060465-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323060465</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>freinds</t>
+  </si>
+  <si>
+    <t>The room was smoking and I LOVED IT!!!. it WAS Nice clean. ground transport was great.From the front desk every one super nice.I will stay with them again.And a Refrigerator and Microwave and King bed nice. mike mesa az</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r285367426-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285367426</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Do not stay here .nothing but drug dealers. They rent nonsmoking rooms to smokers. Right next to strip club.</t>
+  </si>
+  <si>
+    <t>I was forced to stay here.  I wondered why the parking lot was empty.  They rent nonsmoking rooms to smokers!!!!  I listened as the desk clerk rented nonsmoking rooms to smokers...and they stink.  Now I know why the rooms are empty.  Right next to a strip club...stay far away.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston - Hobby TX, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>I was forced to stay here.  I wondered why the parking lot was empty.  They rent nonsmoking rooms to smokers!!!!  I listened as the desk clerk rented nonsmoking rooms to smokers...and they stink.  Now I know why the rooms are empty.  Right next to a strip club...stay far away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r279793140-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279793140</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>Hotel was updated.  rooms were nice and clean.  this was a last minute decision to stay here as we left the other hotel.  It was pathetic.  Front desk lady was so helpful and sympathetic.  Even let us look at the room before we decided to stay.  Would stay here again</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r226365054-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226365054</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>comfortable stay</t>
+  </si>
+  <si>
+    <t>we stay here for one night and its a comfortable stay i must say...just basically a very basic hotel but its clean and nice staff,cheap rate and very close to hobby airport,we had a kingsize bed and the room is so spacious.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r226317230-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226317230</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Being renovated nice flat screen the front lobby service was good, not to many people walking around like other motels in the area,will recomend to other co workers and friendsGood for the price and the airport not to far</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r211436831-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211436831</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Not the best Motel 6, but not the worst.</t>
+  </si>
+  <si>
+    <t>I've stayed in my fair share of Motel 6 hotels ever since I was a small child as my parents were budget travelers.  I needed a place to stay on my last night on a Houston vacation.  I'd spent the past three nights downtown and wanted somewhere close to Hobby to be able to catch my morning flight without worry.  As others have said, this is a typical renovated Motel 6.  My room was stark but clean.  Hallways are a bit dim and there was an ungodly noise coming from the laundry room at the end of the hall, thankfully it shut off before sleep.  I found it hard to maintain a comfortable temperature with the AC and the blanket (if you can call it that) really offered no support.  I had a king bed with a total of three pillows, two of which were mostly flat.  I'm glad no one was with me as I had to use all three!  Slept relatively well and check in/out was a breeze.  I didn't really use any amenities so I can't speak to them (although I did read good things about the airport shuttle).  I had absolutely no concerns about safety, even though the location next to a huge gentleman's club did raise some eyebrows.  All I was looking for was a cheap place to stay for one night and it served its purpose.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I've stayed in my fair share of Motel 6 hotels ever since I was a small child as my parents were budget travelers.  I needed a place to stay on my last night on a Houston vacation.  I'd spent the past three nights downtown and wanted somewhere close to Hobby to be able to catch my morning flight without worry.  As others have said, this is a typical renovated Motel 6.  My room was stark but clean.  Hallways are a bit dim and there was an ungodly noise coming from the laundry room at the end of the hall, thankfully it shut off before sleep.  I found it hard to maintain a comfortable temperature with the AC and the blanket (if you can call it that) really offered no support.  I had a king bed with a total of three pillows, two of which were mostly flat.  I'm glad no one was with me as I had to use all three!  Slept relatively well and check in/out was a breeze.  I didn't really use any amenities so I can't speak to them (although I did read good things about the airport shuttle).  I had absolutely no concerns about safety, even though the location next to a huge gentleman's club did raise some eyebrows.  All I was looking for was a cheap place to stay for one night and it served its purpose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r199837752-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199837752</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly good low-budget motel</t>
+  </si>
+  <si>
+    <t>So I stayed at  Motel 6, with trepidation.  But after four nights, to my own surprise, I'm giving this one high marks.  Within the category of low-price motels, I rate them as excellent.  
+My qualms about budget motels in general are that (A) the rooms are dark and dingy; (B) the staff is unmotivated and/or incompetent, (C) the noise is aggravating, and (D) they're located  in areas that are inconvenient, unsafe and/or unsavory.  At this Motel 6, it was the exact opposite on all counts.  (Though I have mild caveats on C and D).
+(A) First, the front desk staff is excellent.  Of the five I met, two are Indian and two are Nepalese, but all five were competent and professional.  Unreserved kudos to them all.
+(B) I don't know how management finds, trains and supervises their cleaning staff, but my room was kept immaculate during my entire stay, and all of the common areas were also spotlessly clean.  In addition, my room was very well lit, quite bright at night when you turn on all the lights.   Unreserved kudos to this hotel on both cleanliness and lighting.   
+(C) Because I was basically cooling my heels waiting for a consulate to issue a visa, I spent a fair amount of time in the room, and it was very, very quiet.  Part of this was location: two blocks away from I-45 (so you don't get freeway traffic noise) and with rooms...So I stayed at  Motel 6, with trepidation.  But after four nights, to my own surprise, I'm giving this one high marks.  Within the category of low-price motels, I rate them as excellent.  My qualms about budget motels in general are that (A) the rooms are dark and dingy; (B) the staff is unmotivated and/or incompetent, (C) the noise is aggravating, and (D) they're located  in areas that are inconvenient, unsafe and/or unsavory.  At this Motel 6, it was the exact opposite on all counts.  (Though I have mild caveats on C and D). (A) First, the front desk staff is excellent.  Of the five I met, two are Indian and two are Nepalese, but all five were competent and professional.  Unreserved kudos to them all.(B) I don't know how management finds, trains and supervises their cleaning staff, but my room was kept immaculate during my entire stay, and all of the common areas were also spotlessly clean.  In addition, my room was very well lit, quite bright at night when you turn on all the lights.   Unreserved kudos to this hotel on both cleanliness and lighting.   (C) Because I was basically cooling my heels waiting for a consulate to issue a visa, I spent a fair amount of time in the room, and it was very, very quiet.  Part of this was location: two blocks away from I-45 (so you don't get freeway traffic noise) and with rooms set away from, rather than alongside, Airport Blvd (which doesn't really have much traffic late at night when the airport is idle).  Had I only stayed three days, I'd give the hotel unreserved kudos on having quiet rooms.   Based on my actual experience I do give them kudos, but with one reservation.  The last day, someone in an adjacent room coughed and I heard him loud and clear.  So, maybe the walls ARE thin, and I was just lucky.  Perhaps if the folks in the next room had been cranking up the TV volume every evening, my experience would have been quite different.  (D) The hotel row area from Hobby Airport to I-45 is reasonably safe. There are certainly safer neighborhoods  in the metro area (e.g. The Woodlands) but there are also parts of town which are downright dangerous.  For personal security, I'd rate this motel's location about a 7 on a scale with 10 being the safest.  Nor do I consider this hotel's neighborhood to be unsavory.  True, the motel's next-door neighbor is a strip club, but an awfully discrete one.  Plain facade, no garish flashing lights, no shills trying to talk passers-by into coming inside, or showgirls standing in open doorways.  At night you see a line of cars parked outside, not constant traffic in and out.  No indication of any unruly behavior.  Even at night the club was quiet as a mouse; the club building must be well sound-proofed (perhaps as a requirement for licensing?).   Some clubs,  and bars, are serious nuisances, but this one seems pretty inoffensive.  But if you would find being next to any strip club distasteful, you might want to stay elsewhere.  Some additional observations: The TV looked nice, but I never turned it on.  I can't comment on the pool (never even saw it), the wireless (never used it) or the breakfast (never eat it, didn't notice anything but coffee in the lobby).   The rooms are functional, but definitely budget.  My bed was fine for sleeping and had clean sheets and blankets, but was hardly luxurious. The room had hangers on projecting rods rather than a closet; and open shelves on the wall rather than a chest of drawers,  Soap was provided (and replaced daily), but no other toiletries. Water pressure and temperature were fine.  My room's basic colors were in-your-face white and orange.  Since I'm not from Texas, this color scheme did nothing for me.  If you're a die-hard Longhorn fan, you definitely will love the decor.  If you're a die-hard Texas Aggie fan, you may want to call the motel before booking: maybe they've got some rooms painted white and maroon.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>So I stayed at  Motel 6, with trepidation.  But after four nights, to my own surprise, I'm giving this one high marks.  Within the category of low-price motels, I rate them as excellent.  
+My qualms about budget motels in general are that (A) the rooms are dark and dingy; (B) the staff is unmotivated and/or incompetent, (C) the noise is aggravating, and (D) they're located  in areas that are inconvenient, unsafe and/or unsavory.  At this Motel 6, it was the exact opposite on all counts.  (Though I have mild caveats on C and D).
+(A) First, the front desk staff is excellent.  Of the five I met, two are Indian and two are Nepalese, but all five were competent and professional.  Unreserved kudos to them all.
+(B) I don't know how management finds, trains and supervises their cleaning staff, but my room was kept immaculate during my entire stay, and all of the common areas were also spotlessly clean.  In addition, my room was very well lit, quite bright at night when you turn on all the lights.   Unreserved kudos to this hotel on both cleanliness and lighting.   
+(C) Because I was basically cooling my heels waiting for a consulate to issue a visa, I spent a fair amount of time in the room, and it was very, very quiet.  Part of this was location: two blocks away from I-45 (so you don't get freeway traffic noise) and with rooms...So I stayed at  Motel 6, with trepidation.  But after four nights, to my own surprise, I'm giving this one high marks.  Within the category of low-price motels, I rate them as excellent.  My qualms about budget motels in general are that (A) the rooms are dark and dingy; (B) the staff is unmotivated and/or incompetent, (C) the noise is aggravating, and (D) they're located  in areas that are inconvenient, unsafe and/or unsavory.  At this Motel 6, it was the exact opposite on all counts.  (Though I have mild caveats on C and D). (A) First, the front desk staff is excellent.  Of the five I met, two are Indian and two are Nepalese, but all five were competent and professional.  Unreserved kudos to them all.(B) I don't know how management finds, trains and supervises their cleaning staff, but my room was kept immaculate during my entire stay, and all of the common areas were also spotlessly clean.  In addition, my room was very well lit, quite bright at night when you turn on all the lights.   Unreserved kudos to this hotel on both cleanliness and lighting.   (C) Because I was basically cooling my heels waiting for a consulate to issue a visa, I spent a fair amount of time in the room, and it was very, very quiet.  Part of this was location: two blocks away from I-45 (so you don't get freeway traffic noise) and with rooms set away from, rather than alongside, Airport Blvd (which doesn't really have much traffic late at night when the airport is idle).  Had I only stayed three days, I'd give the hotel unreserved kudos on having quiet rooms.   Based on my actual experience I do give them kudos, but with one reservation.  The last day, someone in an adjacent room coughed and I heard him loud and clear.  So, maybe the walls ARE thin, and I was just lucky.  Perhaps if the folks in the next room had been cranking up the TV volume every evening, my experience would have been quite different.  (D) The hotel row area from Hobby Airport to I-45 is reasonably safe. There are certainly safer neighborhoods  in the metro area (e.g. The Woodlands) but there are also parts of town which are downright dangerous.  For personal security, I'd rate this motel's location about a 7 on a scale with 10 being the safest.  Nor do I consider this hotel's neighborhood to be unsavory.  True, the motel's next-door neighbor is a strip club, but an awfully discrete one.  Plain facade, no garish flashing lights, no shills trying to talk passers-by into coming inside, or showgirls standing in open doorways.  At night you see a line of cars parked outside, not constant traffic in and out.  No indication of any unruly behavior.  Even at night the club was quiet as a mouse; the club building must be well sound-proofed (perhaps as a requirement for licensing?).   Some clubs,  and bars, are serious nuisances, but this one seems pretty inoffensive.  But if you would find being next to any strip club distasteful, you might want to stay elsewhere.  Some additional observations: The TV looked nice, but I never turned it on.  I can't comment on the pool (never even saw it), the wireless (never used it) or the breakfast (never eat it, didn't notice anything but coffee in the lobby).   The rooms are functional, but definitely budget.  My bed was fine for sleeping and had clean sheets and blankets, but was hardly luxurious. The room had hangers on projecting rods rather than a closet; and open shelves on the wall rather than a chest of drawers,  Soap was provided (and replaced daily), but no other toiletries. Water pressure and temperature were fine.  My room's basic colors were in-your-face white and orange.  Since I'm not from Texas, this color scheme did nothing for me.  If you're a die-hard Longhorn fan, you definitely will love the decor.  If you're a die-hard Texas Aggie fan, you may want to call the motel before booking: maybe they've got some rooms painted white and maroon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r196946101-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196946101</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Sketchy!</t>
+  </si>
+  <si>
+    <t>So awful! Next door to a strip club, the clerk is behind a glass wall at the front desk. Room was cold and institutional and smelled like stale smoke. There was no breakfast as stated in their advertising. Way over priced for the conditions.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r195721937-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195721937</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Really nice</t>
+  </si>
+  <si>
+    <t>The hotel had a nice modern look. The hardwood floors are awesome the decoration is colorful. The staff was nice also. There is wi fi and a pool for the summer. The location is convenient to pleanty of shopping, especially Wal-Mart.  This location is a place I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r187731178-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187731178</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Lack of Internet</t>
+  </si>
+  <si>
+    <t>I would really like to give this Motel 6 a good review - I really would.  The room was sparkling clean and I think the bathroom had just been renovated.  Yes, it is sparsely furnished, as all Motel 6s are, but that doesn't bother me when I am traveling alone.  The bed was very comfortable too. I have to give kudos all the way around, including the courteous young man who checked me in.But, I need Internet service.  I had a little trouble connecting, but the front desk clerk was helpful and I finally got a solid connection - but the connection was only to the router.  I can only say that it felt like I was connected to the Internet by an old 300 baud modem.  It was so slow as to be unusable - many sites would not connect.  I didn't expect the desk clerk to be a computer expert - and he wasn't - but I finally had to go to a nearby fast food place to get on the Internet.I filled out an online survey a few days later and got an automated email from Motel 6 saying they would work on my problem.  Noting that another reviewer also had a problem with Internet access, I can only assume they have not solved the problem.  Its too bad as I make frequent visits to Houston, but I won't be staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Houston - Hobby TX, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>I would really like to give this Motel 6 a good review - I really would.  The room was sparkling clean and I think the bathroom had just been renovated.  Yes, it is sparsely furnished, as all Motel 6s are, but that doesn't bother me when I am traveling alone.  The bed was very comfortable too. I have to give kudos all the way around, including the courteous young man who checked me in.But, I need Internet service.  I had a little trouble connecting, but the front desk clerk was helpful and I finally got a solid connection - but the connection was only to the router.  I can only say that it felt like I was connected to the Internet by an old 300 baud modem.  It was so slow as to be unusable - many sites would not connect.  I didn't expect the desk clerk to be a computer expert - and he wasn't - but I finally had to go to a nearby fast food place to get on the Internet.I filled out an online survey a few days later and got an automated email from Motel 6 saying they would work on my problem.  Noting that another reviewer also had a problem with Internet access, I can only assume they have not solved the problem.  Its too bad as I make frequent visits to Houston, but I won't be staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r184735597-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184735597</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Motel 6 near Houston Hobby Airport</t>
+  </si>
+  <si>
+    <t>I chose this Motel 6 purely on location and the fact that they had a shuttle to and from the airport.  I was very pleased.  Room was very clean.  The girl at the counter was very helpful and informative.  She had to come to our room twice to help me get the wifi going but she was pleasant each time.  The shuttle in the morning was on time and got us back to the airport in a very timely manner.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r184735375-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184735375</t>
+  </si>
+  <si>
+    <t>You GET what you PAY for!!!!!</t>
+  </si>
+  <si>
+    <t>I really had a subpar stay at the this Hotel. There was nothing available anywhere else. First off there no elevator, so do not get the 2nd floor as I did because I prefer the top level for noise purposes. Secondly the room was falling apart and the air conditioner was from the 80s or 90s at best and made noise all night long. 3rd and most importantly I was told by the front desk the day I checked in, the earliest the shuttle to the airport was at 6am. I had a 8:20 flight, the next morning the front desk told me the shuttle didn't leave until 7:00am and the driver was even late 15 minutes. I barley made my flight! I will never stay at a Motel 6 to save my life if this is the kind of service I am going to receive. Again you get what you pay for!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Houston - Hobby TX, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>I really had a subpar stay at the this Hotel. There was nothing available anywhere else. First off there no elevator, so do not get the 2nd floor as I did because I prefer the top level for noise purposes. Secondly the room was falling apart and the air conditioner was from the 80s or 90s at best and made noise all night long. 3rd and most importantly I was told by the front desk the day I checked in, the earliest the shuttle to the airport was at 6am. I had a 8:20 flight, the next morning the front desk told me the shuttle didn't leave until 7:00am and the driver was even late 15 minutes. I barley made my flight! I will never stay at a Motel 6 to save my life if this is the kind of service I am going to receive. Again you get what you pay for!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r172147551-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172147551</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Not terrible.</t>
+  </si>
+  <si>
+    <t>It was hot, and the AC struggles a lot, especially on the 2nd level. Nice enough staff, very clean room. No tissues, which I thought was weird. It was okay. It's next to a strip club, and not a nice one. It was cheap, so meh.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r152692745-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152692745</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>Go elsewhere</t>
+  </si>
+  <si>
+    <t>These rooms were horrible..First we walked in and was greeted by a Roach on the light switch..I tried to overlook itbecause I was tired from being on the highway for several hours.. I had my brother smash it..Well we were ready to shower so we began unpacking and noticed there was nowhere to place our clothing..No dressers,no closets no anything..When we woke up for work at 4a.m. We had roaches on the wall,the headboard, the telephone and even one in the bed..I would not recommend letting my dog stay there let alone another person..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r143650797-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143650797</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Very well managed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booked a month there for work. Large room, clean neat and spacious. Newly remodeled Art Deco style, new ice machine and things were being upgraded daily. I cut my stay short due to wiifii being unreliable, the manager showed to my room apologized and assured me it was fixed for good. I had already made a reservation at a different hotel due to the wiifii issue. If I was not so reliant on the service I would have stayed. I will be back and I found this a great place to stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r125310302-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125310302</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>Scary Location - Almost slept at the airport!</t>
+  </si>
+  <si>
+    <t>We booked this hotel after reading recent reviews.  We arrived late and I was immediately put off by the bullet-proof glass in the lobby.  After a few minutes, I realized I wouldn't work there without it either.  There was a party going on in the neighboring rooms and people were screaming and going from room to room slamming doors.  The music was loud and they were definitely smoking something other than cigarettes.  These weren't teenagers - they were all about 30 years old.  We had arrived after midnight after driving for a few hours but there were lots of people going from room to room. I was so scared by the shady people going in and out that we almost left and slept in the airport.  We turned the fan up to high and turned the tv on so that our son could go to sleep.  i slept fully dressed so that if we needed to make a run for it, we could.  The beds were nice and the sheets were clean.  The tub was so gross that we put wash cloths in there to stand on.  I sort of felt like I was in a old dorm that no one had cleaned.The entire area around Hobby Airport is pretty shady.  I would recommend spending a little more and staying in a higher end place.  Sometimes you get lucky with a discount place - this wasn't one of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>We booked this hotel after reading recent reviews.  We arrived late and I was immediately put off by the bullet-proof glass in the lobby.  After a few minutes, I realized I wouldn't work there without it either.  There was a party going on in the neighboring rooms and people were screaming and going from room to room slamming doors.  The music was loud and they were definitely smoking something other than cigarettes.  These weren't teenagers - they were all about 30 years old.  We had arrived after midnight after driving for a few hours but there were lots of people going from room to room. I was so scared by the shady people going in and out that we almost left and slept in the airport.  We turned the fan up to high and turned the tv on so that our son could go to sleep.  i slept fully dressed so that if we needed to make a run for it, we could.  The beds were nice and the sheets were clean.  The tub was so gross that we put wash cloths in there to stand on.  I sort of felt like I was in a old dorm that no one had cleaned.The entire area around Hobby Airport is pretty shady.  I would recommend spending a little more and staying in a higher end place.  Sometimes you get lucky with a discount place - this wasn't one of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r121356374-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121356374</t>
+  </si>
+  <si>
+    <t>12/03/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay. Good location, good price, nice and neat.</t>
+  </si>
+  <si>
+    <t>Motel 6's are usually all the same but this one was a little better. Its in a great location very close to Houston Hobby Airport and is near the highway also for easy access to anywhere you need to go. There are alot of places to eat around the area and gas stations are close by also.
+Now, the motel itself was great. Really nice staff and a nice and clean building inside and out. Lots of well lit parking spaces in a huge, somewhat enclosed parking lot so it felt safe. There is a small pool outside that was closed at the time I was there (fall, out of season) but it was still clean and the area looked like a good place to lounge around in. 
+The room I got was HUGE! I got the standard king size bed and it looked like they had once used double beds in the room because I had so much extra space. Ive been to Motel 6's where it looks like they crammed a king size bed into a room the size of a large walk in closet (South Padre Island) so this was great. The room was spotless clean with fresh everything. Huge comfortable king size bed, wood flooring throughout, flatscreen tv, alarm clock radio with audio input for an mp3 player or phone, optional wifi, small desk and lounge area in one corner of the room, coat rack with...Motel 6's are usually all the same but this one was a little better. Its in a great location very close to Houston Hobby Airport and is near the highway also for easy access to anywhere you need to go. There are alot of places to eat around the area and gas stations are close by also.Now, the motel itself was great. Really nice staff and a nice and clean building inside and out. Lots of well lit parking spaces in a huge, somewhat enclosed parking lot so it felt safe. There is a small pool outside that was closed at the time I was there (fall, out of season) but it was still clean and the area looked like a good place to lounge around in. The room I got was HUGE! I got the standard king size bed and it looked like they had once used double beds in the room because I had so much extra space. Ive been to Motel 6's where it looks like they crammed a king size bed into a room the size of a large walk in closet (South Padre Island) so this was great. The room was spotless clean with fresh everything. Huge comfortable king size bed, wood flooring throughout, flatscreen tv, alarm clock radio with audio input for an mp3 player or phone, optional wifi, small desk and lounge area in one corner of the room, coat rack with hangers and a shelf near the door. Clean larger bathroom with curved shower curtain for more room while showering. Overall a nice and big clean room that slept well for a cheap price. You cant beat Motel 6's prices anywhere.If they threw in free WiFi they would be untouchable. Stay here if you need a place to crash while on business in Houston or the vicinity. The location is kind of middle ground to the area so i was able to visit downtown Houston, North Houston, over near NASA, and even Galveston during my stay.2 thumbs up.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Motel 6's are usually all the same but this one was a little better. Its in a great location very close to Houston Hobby Airport and is near the highway also for easy access to anywhere you need to go. There are alot of places to eat around the area and gas stations are close by also.
+Now, the motel itself was great. Really nice staff and a nice and clean building inside and out. Lots of well lit parking spaces in a huge, somewhat enclosed parking lot so it felt safe. There is a small pool outside that was closed at the time I was there (fall, out of season) but it was still clean and the area looked like a good place to lounge around in. 
+The room I got was HUGE! I got the standard king size bed and it looked like they had once used double beds in the room because I had so much extra space. Ive been to Motel 6's where it looks like they crammed a king size bed into a room the size of a large walk in closet (South Padre Island) so this was great. The room was spotless clean with fresh everything. Huge comfortable king size bed, wood flooring throughout, flatscreen tv, alarm clock radio with audio input for an mp3 player or phone, optional wifi, small desk and lounge area in one corner of the room, coat rack with...Motel 6's are usually all the same but this one was a little better. Its in a great location very close to Houston Hobby Airport and is near the highway also for easy access to anywhere you need to go. There are alot of places to eat around the area and gas stations are close by also.Now, the motel itself was great. Really nice staff and a nice and clean building inside and out. Lots of well lit parking spaces in a huge, somewhat enclosed parking lot so it felt safe. There is a small pool outside that was closed at the time I was there (fall, out of season) but it was still clean and the area looked like a good place to lounge around in. The room I got was HUGE! I got the standard king size bed and it looked like they had once used double beds in the room because I had so much extra space. Ive been to Motel 6's where it looks like they crammed a king size bed into a room the size of a large walk in closet (South Padre Island) so this was great. The room was spotless clean with fresh everything. Huge comfortable king size bed, wood flooring throughout, flatscreen tv, alarm clock radio with audio input for an mp3 player or phone, optional wifi, small desk and lounge area in one corner of the room, coat rack with hangers and a shelf near the door. Clean larger bathroom with curved shower curtain for more room while showering. Overall a nice and big clean room that slept well for a cheap price. You cant beat Motel 6's prices anywhere.If they threw in free WiFi they would be untouchable. Stay here if you need a place to crash while on business in Houston or the vicinity. The location is kind of middle ground to the area so i was able to visit downtown Houston, North Houston, over near NASA, and even Galveston during my stay.2 thumbs up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r119864332-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119864332</t>
+  </si>
+  <si>
+    <t>10/29/2011</t>
+  </si>
+  <si>
+    <t>Nicest Motel 6, ever.</t>
+  </si>
+  <si>
+    <t>I spent two nights in this hotel, and was very pleased.I travel for a living and stay in a hotel nearly every night, and have stayed in many Motel 6 locations.  I usually despise Motel 6, but I must say that this particular Houston location was quite fantastic.I had a large room with a flat King-sized bed and retro furnishings.  It was comfortable and pleasant.  There is a laundry facility at the hotel, and the bathrooms and guest rooms are well-designed.I also want to mention the cleanliness of this hotel.  Most Motel 6 locations are known for being a bit unclean... but this location, however, was very clean.  The lobby area even SMELLED clean.  I felt more sanitary in this Motel 6 than I do in a lot of nicer hotels.The clientele and staff of the establishment seemed to be comprised mostly of minorities, but of course, there is nothing wrong with that!Definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I spent two nights in this hotel, and was very pleased.I travel for a living and stay in a hotel nearly every night, and have stayed in many Motel 6 locations.  I usually despise Motel 6, but I must say that this particular Houston location was quite fantastic.I had a large room with a flat King-sized bed and retro furnishings.  It was comfortable and pleasant.  There is a laundry facility at the hotel, and the bathrooms and guest rooms are well-designed.I also want to mention the cleanliness of this hotel.  Most Motel 6 locations are known for being a bit unclean... but this location, however, was very clean.  The lobby area even SMELLED clean.  I felt more sanitary in this Motel 6 than I do in a lot of nicer hotels.The clientele and staff of the establishment seemed to be comprised mostly of minorities, but of course, there is nothing wrong with that!Definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r114165010-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114165010</t>
+  </si>
+  <si>
+    <t>06/18/2011</t>
+  </si>
+  <si>
+    <t>modern feeling on the inside</t>
+  </si>
+  <si>
+    <t>This place seems like an IKEA showroom.  The room looks exactly like in the pictures.  It is modern, clean and comfortable.  The neighborhood around the Motel is what you would expect in an older part of Houston close to the airport.  There is a night club next door, but we heard little disturbances--and this was on a Friday night.  Clean and affordable for a quick stay.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r89873821-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89873821</t>
+  </si>
+  <si>
+    <t>12/14/2010</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>5 star cheap freindly staff clean rooms can't ask better tan that brand new rooms flat screen tvs</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r17863537-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>17863537</t>
+  </si>
+  <si>
+    <t>07/14/2008</t>
+  </si>
+  <si>
+    <t>Passing</t>
+  </si>
+  <si>
+    <t>I stayed here because it was easier than going home that night and heading back to Hobby the next AM. The property has been well worn. I have to confess it looked a bit dark (I checked in late) and the rug seemed stained or at least off color. Not bad for $45, though, and I did see a jaguar in the parking lot. I was left with sort of a 'grimy' feeling, wanting to shower and check out once I got up. I asked for and did receive a wakeup call from them. The checkin lady was very pleasant. I might stay there again but would look at one of the other several hotels in the area. I can't point to anything specifically wrong with the place, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here because it was easier than going home that night and heading back to Hobby the next AM. The property has been well worn. I have to confess it looked a bit dark (I checked in late) and the rug seemed stained or at least off color. Not bad for $45, though, and I did see a jaguar in the parking lot. I was left with sort of a 'grimy' feeling, wanting to shower and check out once I got up. I asked for and did receive a wakeup call from them. The checkin lady was very pleasant. I might stay there again but would look at one of the other several hotels in the area. I can't point to anything specifically wrong with the place, though.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1165,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1197,1957 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>241</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_492.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_492.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r596829971-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244310</t>
+  </si>
+  <si>
+    <t>596829971</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Propped the door closed.</t>
+  </si>
+  <si>
+    <t>No joke. This place is dangerous. I knew it the moment I stepped out of our Uber to stay the night from our flight in to Hobby Airport. We were going to go to Galveston the next morning to get on our cruise. My wife and I checked in and rushed up to our room. The people outside looked at us and I just knew we had to get in our room fast. I am not a wimp. I have been in rough areas but this was different. Very different. I’m not even going to describe the room conditions. We picked a cheap hotel and expected it but even I was surprised at how bad it was. I attached pictures of that night when I propped the door in case you think I am over exaggerating this. I sent them to my son to show him how freaked out I was. This place is no joke people. Stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Houston - Hobby TX, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>No joke. This place is dangerous. I knew it the moment I stepped out of our Uber to stay the night from our flight in to Hobby Airport. We were going to go to Galveston the next morning to get on our cruise. My wife and I checked in and rushed up to our room. The people outside looked at us and I just knew we had to get in our room fast. I am not a wimp. I have been in rough areas but this was different. Very different. I’m not even going to describe the room conditions. We picked a cheap hotel and expected it but even I was surprised at how bad it was. I attached pictures of that night when I propped the door in case you think I am over exaggerating this. I sent them to my son to show him how freaked out I was. This place is no joke people. Stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r573845978-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573845978</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>For the price we paid I wasn't expecting a luxury hotel but a clean hotel would have been nice. Pool area was locked with a chain and padlock. Couldn't even sit outside to enjoy the cool weather. Shower curtain had black stuff on it. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Houston - Hobby TX, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>For the price we paid I wasn't expecting a luxury hotel but a clean hotel would have been nice. Pool area was locked with a chain and padlock. Couldn't even sit outside to enjoy the cool weather. Shower curtain had black stuff on it. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r567877050-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>244310</t>
-  </si>
-  <si>
     <t>567877050</t>
   </si>
   <si>
@@ -225,6 +282,45 @@
     <t>No shuttle available from Hobby airport despite being advertised. Staff advised ‘they had to take it off - get a cab (around $10).Staff weren’t so helpful or friendly at check in. First room had lots of mould in the shower and ants running up the walls. Moved me to another which was better, seemed clean enough but could be great with some TLC and general maintenance. Quite noisy guests at night; long corridor and everyone echoes. Smoke alarm appeared broken / missing.Dennys within walking distance and gas station / liquor store nearby. Was ok for 2 night stay. Uber to downtown cost $17.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r538363065-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538363065</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Good budget motel</t>
+  </si>
+  <si>
+    <t>We spent 2 nights there with our Chocolate lab and it was everything we needed. It is right off I-45. We had a clean room with comfortable bed, clean sheets and towels and a good shower. The employees were very hice and helpful. The only problem was the trash outside. We would stay there again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r531468606-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531468606</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Cockroaches!!!</t>
+  </si>
+  <si>
+    <t>Whatever you do, DO NOT STAY HERE!!!! My family and I got 2 rooms for the night on 09/30/2017 and after checking in, our room was filthy I had to call the front desk and ask for it to be cleaned. The sheets had black spots (dirt, bugs, maybe both) on them along with hair, I think they just made the bed and not changed the sheets. We left and went to our engagement that night and when we got back around 10 pm or so that's when we noticed COCKROACHES!!!!! All over the bathroom and floor by the door. I called the front desk twice with no answer, so I than went to the lobby. I spoke with the night clerk who shrugged his shoulders and told me there was nothing he could do about it and if he was able to find spray he would call my room so I could spray it myself. I asked for a refund and was told since I had been there over 15 minutes I would not get a refund and that it was not his problem. No only was the room disgusting the property was in bad shape also. I asked for their corporate number and he gave me some IT number. I wrote an email and about the situation and when I followed up with them a week later I was told the property would need to issue the refund...Whatever you do, DO NOT STAY HERE!!!! My family and I got 2 rooms for the night on 09/30/2017 and after checking in, our room was filthy I had to call the front desk and ask for it to be cleaned. The sheets had black spots (dirt, bugs, maybe both) on them along with hair, I think they just made the bed and not changed the sheets. We left and went to our engagement that night and when we got back around 10 pm or so that's when we noticed COCKROACHES!!!!! All over the bathroom and floor by the door. I called the front desk twice with no answer, so I than went to the lobby. I spoke with the night clerk who shrugged his shoulders and told me there was nothing he could do about it and if he was able to find spray he would call my room so I could spray it myself. I asked for a refund and was told since I had been there over 15 minutes I would not get a refund and that it was not his problem. No only was the room disgusting the property was in bad shape also. I asked for their corporate number and he gave me some IT number. I wrote an email and about the situation and when I followed up with them a week later I was told the property would need to issue the refund of again only $10 (I paid $123). So if you want crappy and rude service and a corporate office who does nothing, then this is the place. Absolute worse stay in my life. We ended up sleeping in our car that night. I had to give 1 star just to post but I wouldn't even go that far. Horrible just horrible and very disappointed as we usually stay at motel 6s and this was by far the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Whatever you do, DO NOT STAY HERE!!!! My family and I got 2 rooms for the night on 09/30/2017 and after checking in, our room was filthy I had to call the front desk and ask for it to be cleaned. The sheets had black spots (dirt, bugs, maybe both) on them along with hair, I think they just made the bed and not changed the sheets. We left and went to our engagement that night and when we got back around 10 pm or so that's when we noticed COCKROACHES!!!!! All over the bathroom and floor by the door. I called the front desk twice with no answer, so I than went to the lobby. I spoke with the night clerk who shrugged his shoulders and told me there was nothing he could do about it and if he was able to find spray he would call my room so I could spray it myself. I asked for a refund and was told since I had been there over 15 minutes I would not get a refund and that it was not his problem. No only was the room disgusting the property was in bad shape also. I asked for their corporate number and he gave me some IT number. I wrote an email and about the situation and when I followed up with them a week later I was told the property would need to issue the refund...Whatever you do, DO NOT STAY HERE!!!! My family and I got 2 rooms for the night on 09/30/2017 and after checking in, our room was filthy I had to call the front desk and ask for it to be cleaned. The sheets had black spots (dirt, bugs, maybe both) on them along with hair, I think they just made the bed and not changed the sheets. We left and went to our engagement that night and when we got back around 10 pm or so that's when we noticed COCKROACHES!!!!! All over the bathroom and floor by the door. I called the front desk twice with no answer, so I than went to the lobby. I spoke with the night clerk who shrugged his shoulders and told me there was nothing he could do about it and if he was able to find spray he would call my room so I could spray it myself. I asked for a refund and was told since I had been there over 15 minutes I would not get a refund and that it was not his problem. No only was the room disgusting the property was in bad shape also. I asked for their corporate number and he gave me some IT number. I wrote an email and about the situation and when I followed up with them a week later I was told the property would need to issue the refund of again only $10 (I paid $123). So if you want crappy and rude service and a corporate office who does nothing, then this is the place. Absolute worse stay in my life. We ended up sleeping in our car that night. I had to give 1 star just to post but I wouldn't even go that far. Horrible just horrible and very disappointed as we usually stay at motel 6s and this was by far the worst.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r466875959-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
@@ -291,6 +387,42 @@
     <t>The rooms where decent no pest of any kind overall was a comfortable place to stay nothing fancy but what really won me over was the type of customer service I received Elizabeth made me feel welcomed I have been to a couple hotels and at most the evening/ night crew seem sluggish and give the appearance of not wanting to be there... I can honestly say i will check in here again if I am in need of a room for any future business tripsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r436962101-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436962101</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>They are decent....</t>
+  </si>
+  <si>
+    <t>This room was actually decent. I think the price was too high for the average motel 6 room. They charged 70 a night. I didn't see any roaches so that was a plus for a quick over night stay. The room had a fridge and microwave. Pretty spacious room. I was Stisfied for a nights stay. They offer smoking and non smoking rooms and they are pet Friendly. They have security cameras everywhere. There is a convince store walking distance.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r436357703-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436357703</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>My worst experience ever!</t>
+  </si>
+  <si>
+    <t>I am not one to give bad reviews, except when it is really awful. Motel 6 takes the cake, booked the hotel from England, because cheap! price got doubled when I was about to check in, cried then paid, I had no choice to be honest. The coffee vending machine worked just once (spent 3 nights there). NeverMotel6PLUS: proximity to Houston-Hobby</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r373993316-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
@@ -309,9 +441,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>I was looking for a room to sleep for a few hours before catching the red eye at Hobby Airport. I stayed in April 2016 and I paid $68 for that night. Pros: - Free parking. - The place looked clean. - The room was big but spartan. - 5 mins by taxi to the airport.- It seems we might have got lucky - we weren't bitten by bedbugs! :) Cons: - We had 2 receptionists - one lady who wasn't very friendly and one Indian guy on nightshift who had no clue what he was meant to be doing. - The hotel was supposed to provide free shuttle to the airport but apparently it does not run all night. So the receptionist helped us call for a taxi which arrived 45 mins later and we almost missed our flight. - There is nothing to eat within walking distance of the hotel.More</t>
   </si>
   <si>
@@ -330,9 +459,6 @@
     <t>The place was clean inside and out nothing fancy but ok.My daughter and I suffered multiple bedbug bites after our stay.We stayed in two different rooms with the same results.RUN FAR AWAY from this property.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Houston - Hobby TX, responded to this reviewResponded March 30, 2016</t>
   </si>
   <si>
@@ -357,6 +483,45 @@
     <t>The hotel is in a decent area, it is well lit and recently updated.  However, you can smell the pesticides used in the halls and still had live bugs crawling over the walls and on me at night. I had tell tell breakfast, lunch dinner bites on me after visiting this hotel in November 2015.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r344410009-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344410009</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Horrible accommodations, worse staff</t>
+  </si>
+  <si>
+    <t>We stayed here overnight before taking a cruise. I had booked it weeks in advance based on the photos on their website. Those photos do no justice to the deplorable condition of the place.In our room, the toilet was cracked and water pooled up around it constantly. There was a strong odor of mildew mixed with sewage. There were clumps of hair in corners of the room and bathroom. No clock. No remote for the TV. No wifi. When I brought the issues to their attention, the staff said they couldn't do anything about it. Even the vending machines in this place were broken.It sits next door to the nastiest, two-dollar strip club you've ever seen. Definitely will never stay here again and probably never at another motel 6. It was that bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We stayed here overnight before taking a cruise. I had booked it weeks in advance based on the photos on their website. Those photos do no justice to the deplorable condition of the place.In our room, the toilet was cracked and water pooled up around it constantly. There was a strong odor of mildew mixed with sewage. There were clumps of hair in corners of the room and bathroom. No clock. No remote for the TV. No wifi. When I brought the issues to their attention, the staff said they couldn't do anything about it. Even the vending machines in this place were broken.It sits next door to the nastiest, two-dollar strip club you've ever seen. Definitely will never stay here again and probably never at another motel 6. It was that bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r329820130-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329820130</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Very clean and nice For the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We just checked out today. Stayed over the Thanksgiving weekend. Every thing was very clean. The staff was super friendly. Would stay again and recommend. Beds were comfortable. AC worked well. The colors were rather bright but that is a personal choice. Loved that the room didn't have carpet but rather wood plank flooring. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r323060465-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
@@ -423,6 +588,57 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r265646421-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265646421</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Absolutely do not stay here!!!   Very dangerous place.</t>
+  </si>
+  <si>
+    <t>If there was a box for no stars I would check it. This place is the worse and extremely dangerous. My girlfriend and I traveled to Houston because her mother is in the hospital. I booked a room at this establishment not knowing severity of the risk I was jeopardizing my family to. We arrived at the hotel and checked in. The front desk attendant told me the room was located by the pool and stated I just needed to use the door around the corner by the pool. He neglected to point out there were two door entrances by the pool and which one to use. Needless to say we used the wrong one and had to stack our luggage next to the door to bring it into the motel. While I was standing at the door waiting for my girlfriend to come open it I stepped around the corner to see if my truck was ok. A couple who I will not refer to the race took it upon themselves to steal my girlfriends luggage and enter the hotel. I notified management and all they said was well it's your fault. The place was a criminal haven. The hallways reeked of weed and people were yelling and screaming. Management has no control over the property and the place is very dangerous. Don't not stay here !!!  Pay the extra few dollars to keep your family safe !!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston - Hobby TX, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>If there was a box for no stars I would check it. This place is the worse and extremely dangerous. My girlfriend and I traveled to Houston because her mother is in the hospital. I booked a room at this establishment not knowing severity of the risk I was jeopardizing my family to. We arrived at the hotel and checked in. The front desk attendant told me the room was located by the pool and stated I just needed to use the door around the corner by the pool. He neglected to point out there were two door entrances by the pool and which one to use. Needless to say we used the wrong one and had to stack our luggage next to the door to bring it into the motel. While I was standing at the door waiting for my girlfriend to come open it I stepped around the corner to see if my truck was ok. A couple who I will not refer to the race took it upon themselves to steal my girlfriends luggage and enter the hotel. I notified management and all they said was well it's your fault. The place was a criminal haven. The hallways reeked of weed and people were yelling and screaming. Management has no control over the property and the place is very dangerous. Don't not stay here !!!  Pay the extra few dollars to keep your family safe !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r238622247-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238622247</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Customer Service? None here</t>
+  </si>
+  <si>
+    <t>We had reserved this room to be close-by for our 6a.m. flight....there is a shuttle, but doesn't start running until 5:30 a.m.  You can't leave your car here for the duration of your trip. And no one tried to accommodate us ...no customer service whatsoever! And the hotel itself looked a little scary!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston - Hobby TX, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>We had reserved this room to be close-by for our 6a.m. flight....there is a shuttle, but doesn't start running until 5:30 a.m.  You can't leave your car here for the duration of your trip. And no one tried to accommodate us ...no customer service whatsoever! And the hotel itself looked a little scary!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r226365054-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
@@ -472,6 +688,62 @@
   </si>
   <si>
     <t>I've stayed in my fair share of Motel 6 hotels ever since I was a small child as my parents were budget travelers.  I needed a place to stay on my last night on a Houston vacation.  I'd spent the past three nights downtown and wanted somewhere close to Hobby to be able to catch my morning flight without worry.  As others have said, this is a typical renovated Motel 6.  My room was stark but clean.  Hallways are a bit dim and there was an ungodly noise coming from the laundry room at the end of the hall, thankfully it shut off before sleep.  I found it hard to maintain a comfortable temperature with the AC and the blanket (if you can call it that) really offered no support.  I had a king bed with a total of three pillows, two of which were mostly flat.  I'm glad no one was with me as I had to use all three!  Slept relatively well and check in/out was a breeze.  I didn't really use any amenities so I can't speak to them (although I did read good things about the airport shuttle).  I had absolutely no concerns about safety, even though the location next to a huge gentleman's club did raise some eyebrows.  All I was looking for was a cheap place to stay for one night and it served its purpose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r204866076-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204866076</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>We stayed here earlier this week for an early flight out of Hobby. The price was certainly right, and everything else was just fine. 
+The staff at the front desk were pleasant, professional, and helpful. The lobby was clean and attractive, ditto for our room. The room was quite large (we had a single king), and the sort of modern minimalist decor was nice. 
+The bed was very comfortable and the room was quiet (we were on the first floor in the back, near the pool). 
+We spent an enjoyable half hour or so by the pool relaxing before dinner -- birds singing in a nearby tree and just generally pleasant. I mean, yes, you are on a highway next to an airport in a big city, but really, all things considered, it was a nice way to end our trip to Texas.
+The only slightly shaky thing was (as others have mentioned) the wifi. We were given a password at the front desk and it worked fine to connect the first time. But then we got dropped from the network. I just tried connecting on a different motel6 network (there are several) and that worked for a while, til eventually we got dropped from that. The bottom line is that it was an extremely minor inconvenience that was easy to work around. No big deal at all. I could always get back on, and we could stay on for...We stayed here earlier this week for an early flight out of Hobby. The price was certainly right, and everything else was just fine. The staff at the front desk were pleasant, professional, and helpful. The lobby was clean and attractive, ditto for our room. The room was quite large (we had a single king), and the sort of modern minimalist decor was nice. The bed was very comfortable and the room was quiet (we were on the first floor in the back, near the pool). We spent an enjoyable half hour or so by the pool relaxing before dinner -- birds singing in a nearby tree and just generally pleasant. I mean, yes, you are on a highway next to an airport in a big city, but really, all things considered, it was a nice way to end our trip to Texas.The only slightly shaky thing was (as others have mentioned) the wifi. We were given a password at the front desk and it worked fine to connect the first time. But then we got dropped from the network. I just tried connecting on a different motel6 network (there are several) and that worked for a while, til eventually we got dropped from that. The bottom line is that it was an extremely minor inconvenience that was easy to work around. No big deal at all. I could always get back on, and we could stay on for relatively long stretches of time.We were sort of tired of driving, and the restaurant choices nearby are pretty slim. So we just ordered pizza from a local restaurant that had its flyer in the lobby. It arrived promptly and was hot, fresh, and good -- perfect dinner for us.Anyway, I've had good experiences at Motel 6 in lots of different locations, and this one was among the better ones. I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We stayed here earlier this week for an early flight out of Hobby. The price was certainly right, and everything else was just fine. 
+The staff at the front desk were pleasant, professional, and helpful. The lobby was clean and attractive, ditto for our room. The room was quite large (we had a single king), and the sort of modern minimalist decor was nice. 
+The bed was very comfortable and the room was quiet (we were on the first floor in the back, near the pool). 
+We spent an enjoyable half hour or so by the pool relaxing before dinner -- birds singing in a nearby tree and just generally pleasant. I mean, yes, you are on a highway next to an airport in a big city, but really, all things considered, it was a nice way to end our trip to Texas.
+The only slightly shaky thing was (as others have mentioned) the wifi. We were given a password at the front desk and it worked fine to connect the first time. But then we got dropped from the network. I just tried connecting on a different motel6 network (there are several) and that worked for a while, til eventually we got dropped from that. The bottom line is that it was an extremely minor inconvenience that was easy to work around. No big deal at all. I could always get back on, and we could stay on for...We stayed here earlier this week for an early flight out of Hobby. The price was certainly right, and everything else was just fine. The staff at the front desk were pleasant, professional, and helpful. The lobby was clean and attractive, ditto for our room. The room was quite large (we had a single king), and the sort of modern minimalist decor was nice. The bed was very comfortable and the room was quiet (we were on the first floor in the back, near the pool). We spent an enjoyable half hour or so by the pool relaxing before dinner -- birds singing in a nearby tree and just generally pleasant. I mean, yes, you are on a highway next to an airport in a big city, but really, all things considered, it was a nice way to end our trip to Texas.The only slightly shaky thing was (as others have mentioned) the wifi. We were given a password at the front desk and it worked fine to connect the first time. But then we got dropped from the network. I just tried connecting on a different motel6 network (there are several) and that worked for a while, til eventually we got dropped from that. The bottom line is that it was an extremely minor inconvenience that was easy to work around. No big deal at all. I could always get back on, and we could stay on for relatively long stretches of time.We were sort of tired of driving, and the restaurant choices nearby are pretty slim. So we just ordered pizza from a local restaurant that had its flyer in the lobby. It arrived promptly and was hot, fresh, and good -- perfect dinner for us.Anyway, I've had good experiences at Motel 6 in lots of different locations, and this one was among the better ones. I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r201220693-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201220693</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>No Wi Fi, Period</t>
+  </si>
+  <si>
+    <t>I am a truck driver who delivers new trucks, Rv"s and buses. My storage is down the street from this place, so I have stayed a number of times. I stay in many motels around the country. Generally, I like Motel 6, because many are simple, practical and for the most part clean. This is a typical renovated Motel 6. Not bad, not great, but very economical when no events are in town. When I first stayed, I realized that the internet was horrible. I found a solution by asking for a room upstairs, closest to the lobby, and generally I had uninterrupted WiFi. 
+Well, it is April fifteenth and I have been doing my taxes for two days. I was put in a room after moving from another. When I took the room downstairs closest to the lobby, I had WiFi for a little bit. On my third day, however, I told manager or clerk that I absolutely had to have internet, as today is the fifteenth. Although, I had a lot of stuff, I moved it to room upstairs. The guy only gave me 205 though, and it was still aways down the hall. There was no internet. when I questioned why he couldn't have given me room 101 through 104 closer to the lobby, he replied, "those aren't rooms."
+Well, I have stayed in those closets before?
+Why I am writing this is because both when I...I am a truck driver who delivers new trucks, Rv"s and buses. My storage is down the street from this place, so I have stayed a number of times. I stay in many motels around the country. Generally, I like Motel 6, because many are simple, practical and for the most part clean. This is a typical renovated Motel 6. Not bad, not great, but very economical when no events are in town. When I first stayed, I realized that the internet was horrible. I found a solution by asking for a room upstairs, closest to the lobby, and generally I had uninterrupted WiFi. Well, it is April fifteenth and I have been doing my taxes for two days. I was put in a room after moving from another. When I took the room downstairs closest to the lobby, I had WiFi for a little bit. On my third day, however, I told manager or clerk that I absolutely had to have internet, as today is the fifteenth. Although, I had a lot of stuff, I moved it to room upstairs. The guy only gave me 205 though, and it was still aways down the hall. There was no internet. when I questioned why he couldn't have given me room 101 through 104 closer to the lobby, he replied, "those aren't rooms."Well, I have stayed in those closets before?Why I am writing this is because both when I first booked room and today, I was treated as an idiot. .  "Well gee, mine works it must be a problem with your laptop, tablet and phone,"I finally had him refund my third day, and I walked across the street to the Econo Lodge. They were very accommodating, pleasant, and courteous. The room is extremely nice with real solid wood furniture, a solid desk, ample Wifi, and very clean pleasant. If you need Wifi are if you don't like to be treated as an idiot, the few dollars more is well spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I am a truck driver who delivers new trucks, Rv"s and buses. My storage is down the street from this place, so I have stayed a number of times. I stay in many motels around the country. Generally, I like Motel 6, because many are simple, practical and for the most part clean. This is a typical renovated Motel 6. Not bad, not great, but very economical when no events are in town. When I first stayed, I realized that the internet was horrible. I found a solution by asking for a room upstairs, closest to the lobby, and generally I had uninterrupted WiFi. 
+Well, it is April fifteenth and I have been doing my taxes for two days. I was put in a room after moving from another. When I took the room downstairs closest to the lobby, I had WiFi for a little bit. On my third day, however, I told manager or clerk that I absolutely had to have internet, as today is the fifteenth. Although, I had a lot of stuff, I moved it to room upstairs. The guy only gave me 205 though, and it was still aways down the hall. There was no internet. when I questioned why he couldn't have given me room 101 through 104 closer to the lobby, he replied, "those aren't rooms."
+Well, I have stayed in those closets before?
+Why I am writing this is because both when I...I am a truck driver who delivers new trucks, Rv"s and buses. My storage is down the street from this place, so I have stayed a number of times. I stay in many motels around the country. Generally, I like Motel 6, because many are simple, practical and for the most part clean. This is a typical renovated Motel 6. Not bad, not great, but very economical when no events are in town. When I first stayed, I realized that the internet was horrible. I found a solution by asking for a room upstairs, closest to the lobby, and generally I had uninterrupted WiFi. Well, it is April fifteenth and I have been doing my taxes for two days. I was put in a room after moving from another. When I took the room downstairs closest to the lobby, I had WiFi for a little bit. On my third day, however, I told manager or clerk that I absolutely had to have internet, as today is the fifteenth. Although, I had a lot of stuff, I moved it to room upstairs. The guy only gave me 205 though, and it was still aways down the hall. There was no internet. when I questioned why he couldn't have given me room 101 through 104 closer to the lobby, he replied, "those aren't rooms."Well, I have stayed in those closets before?Why I am writing this is because both when I first booked room and today, I was treated as an idiot. .  "Well gee, mine works it must be a problem with your laptop, tablet and phone,"I finally had him refund my third day, and I walked across the street to the Econo Lodge. They were very accommodating, pleasant, and courteous. The room is extremely nice with real solid wood furniture, a solid desk, ample Wifi, and very clean pleasant. If you need Wifi are if you don't like to be treated as an idiot, the few dollars more is well spent.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r199837752-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
@@ -493,9 +765,6 @@
 (C) Because I was basically cooling my heels waiting for a consulate to issue a visa, I spent a fair amount of time in the room, and it was very, very quiet.  Part of this was location: two blocks away from I-45 (so you don't get freeway traffic noise) and with rooms...So I stayed at  Motel 6, with trepidation.  But after four nights, to my own surprise, I'm giving this one high marks.  Within the category of low-price motels, I rate them as excellent.  My qualms about budget motels in general are that (A) the rooms are dark and dingy; (B) the staff is unmotivated and/or incompetent, (C) the noise is aggravating, and (D) they're located  in areas that are inconvenient, unsafe and/or unsavory.  At this Motel 6, it was the exact opposite on all counts.  (Though I have mild caveats on C and D). (A) First, the front desk staff is excellent.  Of the five I met, two are Indian and two are Nepalese, but all five were competent and professional.  Unreserved kudos to them all.(B) I don't know how management finds, trains and supervises their cleaning staff, but my room was kept immaculate during my entire stay, and all of the common areas were also spotlessly clean.  In addition, my room was very well lit, quite bright at night when you turn on all the lights.   Unreserved kudos to this hotel on both cleanliness and lighting.   (C) Because I was basically cooling my heels waiting for a consulate to issue a visa, I spent a fair amount of time in the room, and it was very, very quiet.  Part of this was location: two blocks away from I-45 (so you don't get freeway traffic noise) and with rooms set away from, rather than alongside, Airport Blvd (which doesn't really have much traffic late at night when the airport is idle).  Had I only stayed three days, I'd give the hotel unreserved kudos on having quiet rooms.   Based on my actual experience I do give them kudos, but with one reservation.  The last day, someone in an adjacent room coughed and I heard him loud and clear.  So, maybe the walls ARE thin, and I was just lucky.  Perhaps if the folks in the next room had been cranking up the TV volume every evening, my experience would have been quite different.  (D) The hotel row area from Hobby Airport to I-45 is reasonably safe. There are certainly safer neighborhoods  in the metro area (e.g. The Woodlands) but there are also parts of town which are downright dangerous.  For personal security, I'd rate this motel's location about a 7 on a scale with 10 being the safest.  Nor do I consider this hotel's neighborhood to be unsavory.  True, the motel's next-door neighbor is a strip club, but an awfully discrete one.  Plain facade, no garish flashing lights, no shills trying to talk passers-by into coming inside, or showgirls standing in open doorways.  At night you see a line of cars parked outside, not constant traffic in and out.  No indication of any unruly behavior.  Even at night the club was quiet as a mouse; the club building must be well sound-proofed (perhaps as a requirement for licensing?).   Some clubs,  and bars, are serious nuisances, but this one seems pretty inoffensive.  But if you would find being next to any strip club distasteful, you might want to stay elsewhere.  Some additional observations: The TV looked nice, but I never turned it on.  I can't comment on the pool (never even saw it), the wireless (never used it) or the breakfast (never eat it, didn't notice anything but coffee in the lobby).   The rooms are functional, but definitely budget.  My bed was fine for sleeping and had clean sheets and blankets, but was hardly luxurious. The room had hangers on projecting rods rather than a closet; and open shelves on the wall rather than a chest of drawers,  Soap was provided (and replaced daily), but no other toiletries. Water pressure and temperature were fine.  My room's basic colors were in-your-face white and orange.  Since I'm not from Texas, this color scheme did nothing for me.  If you're a die-hard Longhorn fan, you definitely will love the decor.  If you're a die-hard Texas Aggie fan, you may want to call the motel before booking: maybe they've got some rooms painted white and maroon.MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>So I stayed at  Motel 6, with trepidation.  But after four nights, to my own surprise, I'm giving this one high marks.  Within the category of low-price motels, I rate them as excellent.  
 My qualms about budget motels in general are that (A) the rooms are dark and dingy; (B) the staff is unmotivated and/or incompetent, (C) the noise is aggravating, and (D) they're located  in areas that are inconvenient, unsafe and/or unsavory.  At this Motel 6, it was the exact opposite on all counts.  (Though I have mild caveats on C and D).
 (A) First, the front desk staff is excellent.  Of the five I met, two are Indian and two are Nepalese, but all five were competent and professional.  Unreserved kudos to them all.
@@ -539,6 +808,36 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r193276761-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193276761</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>very handy to airport, but not a cozy place</t>
+  </si>
+  <si>
+    <t>This is an older property that has been converted to an updated Motel 6.  It's much bigger, so there are always rooms available.  The shuttle is dependable and quick (Note that it only operates 7am-11pm).  It has something of a depressing feel to it, but I must admit the room and bath were clean, and the bed comfortable.  There was morning coffee in the lobby.  Great deal for the price of a motel 5 minutes from the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r191657352-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191657352</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Budget motel with modern, clean rooms</t>
+  </si>
+  <si>
+    <t>This motel has a rather 'budget feel' in the communal areas, however the staff were extremely friendly and the rooms themselves are very large with mostly modern fittings (despite feeling a little cheap). Breakfast is not provided in contrast to other similar chains at a similar price point (although this was clearly stated when booking). WIFI was a little hit and miss.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r187731178-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
@@ -608,6 +907,62 @@
     <t>I really had a subpar stay at the this Hotel. There was nothing available anywhere else. First off there no elevator, so do not get the 2nd floor as I did because I prefer the top level for noise purposes. Secondly the room was falling apart and the air conditioner was from the 80s or 90s at best and made noise all night long. 3rd and most importantly I was told by the front desk the day I checked in, the earliest the shuttle to the airport was at 6am. I had a 8:20 flight, the next morning the front desk told me the shuttle didn't leave until 7:00am and the driver was even late 15 minutes. I barley made my flight! I will never stay at a Motel 6 to save my life if this is the kind of service I am going to receive. Again you get what you pay for!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r183665674-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183665674</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Not great but it'll do.</t>
+  </si>
+  <si>
+    <t>We stayed here on the night of Nov. 3. The outside of the building and the surrounding areas looked a little sketchy but the inside looked nice enough. Staff was alright. Not too outgoing or overly friendly. 
+The room was itself was clean and I liked the set up and the furniture--- BUT there are no dressers or closets to store your clothing which could be an issue if you are staying more than a night or two. The bathroom however was disgusting. The tub was dirty and had stuff in it, the water pressure was nonexistent. We skipped showering and just decided to shower when we got home the next morning.
+The furniture while looking modern or hip is actually pretty cheap quality...reminds me of a hostel aimed towards college kids. Nice tv though. NO ALARM CLOCKS IN THE ROOM. This annoyed me as I don't hear my phone alarm in the morning.
+Wifi sucked. It's slow and drops in and out. Not worth the headache to try and use it.
+Bed itself was comfortable but the pillows were tiny and not very supportive. Think tiny kid sized pillow and thin.
+AC is not on when you get there, you have to turn it on. Takes a few minutes to cool the room down.
+Deadbolt on door was broken. Didn't make me feel very safe.
+Went to get breakfast before the cut off time and there was nothing out....We stayed here on the night of Nov. 3. The outside of the building and the surrounding areas looked a little sketchy but the inside looked nice enough. Staff was alright. Not too outgoing or overly friendly. The room was itself was clean and I liked the set up and the furniture--- BUT there are no dressers or closets to store your clothing which could be an issue if you are staying more than a night or two. The bathroom however was disgusting. The tub was dirty and had stuff in it, the water pressure was nonexistent. We skipped showering and just decided to shower when we got home the next morning.The furniture while looking modern or hip is actually pretty cheap quality...reminds me of a hostel aimed towards college kids. Nice tv though. NO ALARM CLOCKS IN THE ROOM. This annoyed me as I don't hear my phone alarm in the morning.Wifi sucked. It's slow and drops in and out. Not worth the headache to try and use it.Bed itself was comfortable but the pillows were tiny and not very supportive. Think tiny kid sized pillow and thin.AC is not on when you get there, you have to turn it on. Takes a few minutes to cool the room down.Deadbolt on door was broken. Didn't make me feel very safe.Went to get breakfast before the cut off time and there was nothing out. That kinda sucked as I like to eat breakfast at my hotel to save money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Houston - Hobby TX, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here on the night of Nov. 3. The outside of the building and the surrounding areas looked a little sketchy but the inside looked nice enough. Staff was alright. Not too outgoing or overly friendly. 
+The room was itself was clean and I liked the set up and the furniture--- BUT there are no dressers or closets to store your clothing which could be an issue if you are staying more than a night or two. The bathroom however was disgusting. The tub was dirty and had stuff in it, the water pressure was nonexistent. We skipped showering and just decided to shower when we got home the next morning.
+The furniture while looking modern or hip is actually pretty cheap quality...reminds me of a hostel aimed towards college kids. Nice tv though. NO ALARM CLOCKS IN THE ROOM. This annoyed me as I don't hear my phone alarm in the morning.
+Wifi sucked. It's slow and drops in and out. Not worth the headache to try and use it.
+Bed itself was comfortable but the pillows were tiny and not very supportive. Think tiny kid sized pillow and thin.
+AC is not on when you get there, you have to turn it on. Takes a few minutes to cool the room down.
+Deadbolt on door was broken. Didn't make me feel very safe.
+Went to get breakfast before the cut off time and there was nothing out....We stayed here on the night of Nov. 3. The outside of the building and the surrounding areas looked a little sketchy but the inside looked nice enough. Staff was alright. Not too outgoing or overly friendly. The room was itself was clean and I liked the set up and the furniture--- BUT there are no dressers or closets to store your clothing which could be an issue if you are staying more than a night or two. The bathroom however was disgusting. The tub was dirty and had stuff in it, the water pressure was nonexistent. We skipped showering and just decided to shower when we got home the next morning.The furniture while looking modern or hip is actually pretty cheap quality...reminds me of a hostel aimed towards college kids. Nice tv though. NO ALARM CLOCKS IN THE ROOM. This annoyed me as I don't hear my phone alarm in the morning.Wifi sucked. It's slow and drops in and out. Not worth the headache to try and use it.Bed itself was comfortable but the pillows were tiny and not very supportive. Think tiny kid sized pillow and thin.AC is not on when you get there, you have to turn it on. Takes a few minutes to cool the room down.Deadbolt on door was broken. Didn't make me feel very safe.Went to get breakfast before the cut off time and there was nothing out. That kinda sucked as I like to eat breakfast at my hotel to save money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r175890687-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175890687</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>I should have came here in the 1st place...</t>
+  </si>
+  <si>
+    <t>I arrived in Houston August 28 &amp; initially stayed at the Travelodge. Horrible hotel so I decided to move. I went online and saw Motel 6. I decided to book thru their actual website though because it was cheaper than the other websites. I had no issues at check in. The room was very clean and spacious. Plenty of parking. The staff was very professional. They have an airport shuttle. I stayed from August 30-September 4. There were no people just hanging out. It's right next to the freeway, tons of restaurants and shopping up the street. The pool was clean. Housekeeping came everyday and did a good job. They also have a laundry facility. I have absolutely no complaints. I totally enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived in Houston August 28 &amp; initially stayed at the Travelodge. Horrible hotel so I decided to move. I went online and saw Motel 6. I decided to book thru their actual website though because it was cheaper than the other websites. I had no issues at check in. The room was very clean and spacious. Plenty of parking. The staff was very professional. They have an airport shuttle. I stayed from August 30-September 4. There were no people just hanging out. It's right next to the freeway, tons of restaurants and shopping up the street. The pool was clean. Housekeeping came everyday and did a good job. They also have a laundry facility. I have absolutely no complaints. I totally enjoyed my stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r172147551-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
   </si>
   <si>
@@ -651,6 +1006,42 @@
   </si>
   <si>
     <t xml:space="preserve">Booked a month there for work. Large room, clean neat and spacious. Newly remodeled Art Deco style, new ice machine and things were being upgraded daily. I cut my stay short due to wiifii being unreliable, the manager showed to my room apologized and assured me it was fixed for good. I had already made a reservation at a different hotel due to the wiifii issue. If I was not so reliant on the service I would have stayed. I will be back and I found this a great place to stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r135452048-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135452048</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Newly renovated hotel with ok beds but clean rooms</t>
+  </si>
+  <si>
+    <t>They just renovated and theres no bums hanging around which is nice because just on the other side of the highway there tends to be alot of people on foot at all times of the night. But the rooms were a very good size, the bed was somewhat comfortable, not completely unbearable for one night and a good price. It was quiet and clean so that was a perk. other then that not exciting , but not revolting , I have seen revolting and this hotel is not in that category!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r129373147-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129373147</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>nice remodeling job....bad location</t>
+  </si>
+  <si>
+    <t>The remodeled rooms at this location are really nice for a Motel 6. So just stay in your room and lock the door because the rest of the experience isn't great.  The front desk clerk was completely overwhelmed and there was a line of people waiting for rooms to be cleaned so that we could check in.  There is a strip joint next door and the hotel shuttle only runs 7 -11, so if you have an early flight like i did you need to call a cab. It's ok for an airport layover.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r125310302-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
@@ -718,6 +1109,42 @@
   </si>
   <si>
     <t>I spent two nights in this hotel, and was very pleased.I travel for a living and stay in a hotel nearly every night, and have stayed in many Motel 6 locations.  I usually despise Motel 6, but I must say that this particular Houston location was quite fantastic.I had a large room with a flat King-sized bed and retro furnishings.  It was comfortable and pleasant.  There is a laundry facility at the hotel, and the bathrooms and guest rooms are well-designed.I also want to mention the cleanliness of this hotel.  Most Motel 6 locations are known for being a bit unclean... but this location, however, was very clean.  The lobby area even SMELLED clean.  I felt more sanitary in this Motel 6 than I do in a lot of nicer hotels.The clientele and staff of the establishment seemed to be comprised mostly of minorities, but of course, there is nothing wrong with that!Definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r118824309-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118824309</t>
+  </si>
+  <si>
+    <t>10/01/2011</t>
+  </si>
+  <si>
+    <t>Fantastic everything for the price!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Motel6 is very close to airport,  shuttle was prompt, clean and nice sized room that had a micro/fridge. Staff was courteous and professional, and price was unbeatable! We felt safe walking in area during the day (convenience store, Taco Cabana,  DQ within walking distance)  but probably wouldn't have ventured out on foot at night. Our first stay in a room with laminate flooring,  which was different! And remember, Motel6 has threadbare towels, no breakfast, and shampoo only available by request... i will take these penalties for the fabulous rate and proximity to Houston Hobby airport! =) </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r116092178-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116092178</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>HORRIBLE Customer Service from Front Desk to GM</t>
+  </si>
+  <si>
+    <t>Checked in and the alarm clock and table were broken and wireless Internet was not working in the room, which forced me to bring all my work into the hotel lobby to work from. The front desk didn't care about the issue and didn't offer me another room where the Internet was working (they had lots of vacancy and Internet was working in other rooms per front desk). Requested a taxi in the morning and they never called for one and didn't show interest in the a.m. when I needed one, which caused me to almost miss my flight. Tried to talk to the GM Devin Patel via e-mail and phone and left multiple messages with no phone call back. I finally got him on the phone and he tried to pretend he was someone else at first and he showed no interest in helping out and said he didn't have to do anything since they were a franchise so I could complain all I wanted but nothing would be done.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>Checked in and the alarm clock and table were broken and wireless Internet was not working in the room, which forced me to bring all my work into the hotel lobby to work from. The front desk didn't care about the issue and didn't offer me another room where the Internet was working (they had lots of vacancy and Internet was working in other rooms per front desk). Requested a taxi in the morning and they never called for one and didn't show interest in the a.m. when I needed one, which caused me to almost miss my flight. Tried to talk to the GM Devin Patel via e-mail and phone and left multiple messages with no phone call back. I finally got him on the phone and he tried to pretend he was someone else at first and he showed no interest in helping out and said he didn't have to do anything since they were a franchise so I could complain all I wanted but nothing would be done.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244310-r114165010-Motel_6_Houston_Hobby_TX-Houston_Texas.html</t>
@@ -1306,7 +1733,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1323,10 +1750,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1342,7 +1773,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1351,47 +1782,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1407,7 +1834,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1416,25 +1843,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1448,7 +1875,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1464,7 +1891,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1473,45 +1900,47 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1527,7 +1956,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1536,47 +1965,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1592,7 +2013,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1601,43 +2022,45 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>80</v>
-      </c>
-      <c r="X7" t="s">
-        <v>81</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1653,7 +2076,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1662,34 +2085,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>1</v>
@@ -1700,7 +2121,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1716,7 +2137,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1725,47 +2146,45 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="S9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
         <v>105</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -1781,44 +2200,56 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>108</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>109</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>110</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>111</v>
       </c>
-      <c r="L10" t="s">
-        <v>112</v>
-      </c>
       <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +2265,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1843,45 +2274,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>119</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1897,7 +2326,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1906,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1935,14 +2364,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
         <v>127</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -1979,23 +2404,25 @@
         <v>133</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
         <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2040,25 +2467,25 @@
         <v>139</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2066,7 +2493,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -2082,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2091,45 +2518,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -2145,7 +2574,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2154,49 +2583,35 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
@@ -2212,7 +2627,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2221,49 +2636,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -2279,7 +2684,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2288,25 +2693,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2320,7 +2725,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -2336,7 +2741,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2345,39 +2750,45 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>119</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -2393,7 +2804,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2402,53 +2813,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="X20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -2464,7 +2865,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2473,35 +2874,29 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>119</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
         <v>4</v>
       </c>
@@ -2515,7 +2910,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
@@ -2531,7 +2926,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2540,53 +2935,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
@@ -2602,7 +2987,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2611,45 +2996,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
       <c r="P23" t="n">
         <v>3</v>
       </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -2665,7 +3054,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2674,37 +3063,37 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2712,7 +3101,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
@@ -2728,7 +3117,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2737,35 +3126,45 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
@@ -2781,7 +3180,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2790,41 +3189,41 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2832,7 +3231,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -2848,7 +3247,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2857,41 +3256,41 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2899,7 +3298,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -2915,7 +3314,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2924,41 +3323,41 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2966,7 +3365,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
@@ -2982,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -2991,43 +3390,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
@@ -3043,7 +3448,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3052,49 +3457,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
@@ -3110,7 +3505,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3119,22 +3514,26 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" t="s">
+        <v>174</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -3147,7 +3546,1305 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>255</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O33" t="s">
+        <v>174</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>271</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>272</v>
+      </c>
+      <c r="X34" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>275</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>276</v>
+      </c>
+      <c r="J35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K35" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>174</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>286</v>
+      </c>
+      <c r="X36" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s">
+        <v>292</v>
+      </c>
+      <c r="L37" t="s">
+        <v>293</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>285</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>294</v>
+      </c>
+      <c r="X37" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L38" t="s">
+        <v>301</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s">
+        <v>307</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>309</v>
+      </c>
+      <c r="J40" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" t="s">
+        <v>311</v>
+      </c>
+      <c r="L40" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J41" t="s">
+        <v>315</v>
+      </c>
+      <c r="K41" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" t="s">
+        <v>320</v>
+      </c>
+      <c r="K42" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s">
+        <v>322</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>323</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>329</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" t="s">
+        <v>332</v>
+      </c>
+      <c r="K44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>345</v>
+      </c>
+      <c r="J46" t="s">
+        <v>346</v>
+      </c>
+      <c r="K46" t="s">
+        <v>347</v>
+      </c>
+      <c r="L46" t="s">
+        <v>348</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>349</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>357</v>
+      </c>
+      <c r="J48" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s">
+        <v>373</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>374</v>
+      </c>
+      <c r="O50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8001</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
